--- a/data/trans_orig/P45C_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>67225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54082</v>
+        <v>51601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86099</v>
+        <v>83134</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1418923429483216</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1141520069144453</v>
+        <v>0.1089138756769689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1817300462692763</v>
+        <v>0.1754716127834413</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>49410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38528</v>
+        <v>38025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65479</v>
+        <v>63547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.161645422149545</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1260444054181775</v>
+        <v>0.1243995046871212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2142180350302483</v>
+        <v>0.2078974416076751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -786,19 +786,19 @@
         <v>116635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97194</v>
+        <v>95241</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137939</v>
+        <v>139120</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1496387267169479</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.124696150955496</v>
+        <v>0.1221913235772838</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1769707442672772</v>
+        <v>0.1784863912681041</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>406551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>387677</v>
+        <v>390642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419694</v>
+        <v>422175</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8581076570516784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8182699537307233</v>
+        <v>0.8245283872165585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8858479930855546</v>
+        <v>0.8910861243230309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -836,19 +836,19 @@
         <v>256257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>240188</v>
+        <v>242120</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>267139</v>
+        <v>267642</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.838354577850455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7857819649697517</v>
+        <v>0.7921025583923249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8739555945818225</v>
+        <v>0.8756004953128789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>639</v>
@@ -857,19 +857,19 @@
         <v>662809</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>641505</v>
+        <v>640324</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>682250</v>
+        <v>684203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8503612732830521</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8230292557327232</v>
+        <v>0.8215136087318961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8753038490445041</v>
+        <v>0.8778086764227164</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>58145</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46008</v>
+        <v>45254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74400</v>
+        <v>73238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1584624801142337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1253851566445452</v>
+        <v>0.1233305183539706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2027617751459868</v>
+        <v>0.1995954435698143</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -982,19 +982,19 @@
         <v>60883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48906</v>
+        <v>48022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77083</v>
+        <v>75539</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1637223413024116</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1315146560746775</v>
+        <v>0.1291384693956903</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2072878976982972</v>
+        <v>0.203136783977361</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -1003,19 +1003,19 @@
         <v>119028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99950</v>
+        <v>100602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138362</v>
+        <v>139663</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1611099627978393</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1352868469790863</v>
+        <v>0.136169358346914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1872798599972456</v>
+        <v>0.1890403950229102</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>308789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292534</v>
+        <v>293696</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>320926</v>
+        <v>321680</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8415375198857663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7972382248540133</v>
+        <v>0.8004045564301858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8746148433554548</v>
+        <v>0.8766694816460294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>301</v>
@@ -1053,19 +1053,19 @@
         <v>310982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>294782</v>
+        <v>296326</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322959</v>
+        <v>323843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8362776586975884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7927121023017026</v>
+        <v>0.796863216022639</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8684853439253225</v>
+        <v>0.8708615306043096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>594</v>
@@ -1074,19 +1074,19 @@
         <v>619771</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>600437</v>
+        <v>599136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>638849</v>
+        <v>638197</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8388900372021607</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8127201400027544</v>
+        <v>0.8109596049770897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8647131530209138</v>
+        <v>0.863830641653086</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>103886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86785</v>
+        <v>87371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123374</v>
+        <v>125908</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1921968569871155</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1605572958513971</v>
+        <v>0.1616421093317723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2282501783445603</v>
+        <v>0.2329383929093569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1199,19 +1199,19 @@
         <v>23373</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15747</v>
+        <v>15136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33705</v>
+        <v>32424</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1393032995531535</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0938537333799048</v>
+        <v>0.09021019722517895</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2008865054357544</v>
+        <v>0.1932511564321114</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -1220,19 +1220,19 @@
         <v>127259</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>107705</v>
+        <v>108942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149587</v>
+        <v>148546</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1796675001630772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1520602645732285</v>
+        <v>0.1538073258144225</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2111900900651089</v>
+        <v>0.2097205983537151</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>436635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>417147</v>
+        <v>414613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453736</v>
+        <v>453150</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8078031430128845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7717498216554395</v>
+        <v>0.7670616070906429</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8394427041486029</v>
+        <v>0.8383578906682277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>140</v>
@@ -1270,19 +1270,19 @@
         <v>144409</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>134077</v>
+        <v>135358</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152035</v>
+        <v>152646</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8606967004468464</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7991134945642456</v>
+        <v>0.8067488435678888</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9061462666200952</v>
+        <v>0.9097898027748211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>568</v>
@@ -1291,19 +1291,19 @@
         <v>581044</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>558716</v>
+        <v>559757</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>600598</v>
+        <v>599361</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8203324998369228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7888099099348911</v>
+        <v>0.790279401646285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8479397354267715</v>
+        <v>0.8461926741855774</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>173029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148298</v>
+        <v>149863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>197001</v>
+        <v>198905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1400772677504744</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1200566444012056</v>
+        <v>0.1213236276827336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1594846356025508</v>
+        <v>0.1610253936473382</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -1416,19 +1416,19 @@
         <v>92171</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75042</v>
+        <v>75479</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109703</v>
+        <v>111999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1296103007634117</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1055236312288728</v>
+        <v>0.1061374328104511</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1542636561490806</v>
+        <v>0.1574916332161013</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -1437,19 +1437,19 @@
         <v>265200</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>236125</v>
+        <v>234634</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>297298</v>
+        <v>294981</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1362529889100649</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1213149343142743</v>
+        <v>0.1205492435976573</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1527443583105182</v>
+        <v>0.1515535785541678</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1062208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1038236</v>
+        <v>1036332</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1086939</v>
+        <v>1085374</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8599227322495256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8405153643974492</v>
+        <v>0.8389746063526617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8799433555987944</v>
+        <v>0.8786763723172664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>600</v>
@@ -1487,19 +1487,19 @@
         <v>618970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>601438</v>
+        <v>599142</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>636099</v>
+        <v>635662</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8703896992365883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8457363438509193</v>
+        <v>0.8425083667838984</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8944763687711272</v>
+        <v>0.8938625671895488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1652</v>
@@ -1508,19 +1508,19 @@
         <v>1681178</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1649080</v>
+        <v>1651397</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1710253</v>
+        <v>1711744</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8637470110899351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8472556416894818</v>
+        <v>0.8484464214458322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8786850656857256</v>
+        <v>0.8794507564023426</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>45090</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33555</v>
+        <v>33767</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57519</v>
+        <v>58915</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1290002584429031</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09599856469755906</v>
+        <v>0.09660372277315014</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1645572472299747</v>
+        <v>0.1685506972563074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1633,19 +1633,19 @@
         <v>47304</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34290</v>
+        <v>34391</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62730</v>
+        <v>62955</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08327906885106937</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06036808200012246</v>
+        <v>0.06054634940648743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1104374143777187</v>
+        <v>0.1108332681182441</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -1654,19 +1654,19 @@
         <v>92394</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75718</v>
+        <v>75519</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111533</v>
+        <v>111938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1006963946418377</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08252211965196238</v>
+        <v>0.08230566419098265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1215557576272385</v>
+        <v>0.1219963395976223</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>304447</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>292018</v>
+        <v>290622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>315982</v>
+        <v>315770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8709997415570969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8354427527700249</v>
+        <v>0.8314493027436924</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9040014353024409</v>
+        <v>0.9033962772268498</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>493</v>
@@ -1704,19 +1704,19 @@
         <v>520708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>505282</v>
+        <v>505057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>533722</v>
+        <v>533621</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9167209311489306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8895625856222815</v>
+        <v>0.8891667318817558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.939631917999878</v>
+        <v>0.9394536505935125</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>787</v>
@@ -1725,19 +1725,19 @@
         <v>825155</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>806016</v>
+        <v>805611</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>841831</v>
+        <v>842030</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8993036053581622</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8784442423727614</v>
+        <v>0.8780036604023777</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9174778803480377</v>
+        <v>0.9176943358090173</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>66091</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52399</v>
+        <v>52790</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80675</v>
+        <v>81050</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2228989253899649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1767206403921953</v>
+        <v>0.1780407760094928</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2720858753480719</v>
+        <v>0.2733496810845208</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>151</v>
@@ -1850,19 +1850,19 @@
         <v>145803</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124993</v>
+        <v>122972</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>170646</v>
+        <v>167227</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1170674498810842</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1003593599903394</v>
+        <v>0.09873633719747385</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1370142165501181</v>
+        <v>0.1342691004209003</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>219</v>
@@ -1871,19 +1871,19 @@
         <v>211893</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>187372</v>
+        <v>187000</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>239249</v>
+        <v>238072</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1374178618118536</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1215153794758577</v>
+        <v>0.1212736052578599</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1551589189873407</v>
+        <v>0.1543950652401742</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>230414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215830</v>
+        <v>215455</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244106</v>
+        <v>243715</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7771010746100351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7279141246519281</v>
+        <v>0.7266503189154792</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8232793596078049</v>
+        <v>0.8219592239905071</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1084</v>
@@ -1921,19 +1921,19 @@
         <v>1099656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1074813</v>
+        <v>1078232</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1120466</v>
+        <v>1122487</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8829325501189158</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8629857834498821</v>
+        <v>0.8657308995790993</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8996406400096606</v>
+        <v>0.9012636628025258</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1320</v>
@@ -1942,19 +1942,19 @@
         <v>1330071</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1302715</v>
+        <v>1303892</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1354592</v>
+        <v>1354964</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8625821381881464</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8448410810126593</v>
+        <v>0.8456049347598258</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8784846205241423</v>
+        <v>0.8787263947421401</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>513467</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>476000</v>
+        <v>473084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>555641</v>
+        <v>556341</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1573839049820527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1458997848020383</v>
+        <v>0.1450059707759355</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1703107431043454</v>
+        <v>0.1705252700964013</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>421</v>
@@ -2067,19 +2067,19 @@
         <v>418942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>381077</v>
+        <v>379264</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>458449</v>
+        <v>458033</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1243179515647935</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1130816176410761</v>
+        <v>0.1125437082276586</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1360413520932012</v>
+        <v>0.1359177473184075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>927</v>
@@ -2088,19 +2088,19 @@
         <v>932409</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>881102</v>
+        <v>875773</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>992355</v>
+        <v>990659</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1405831707258436</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1328474393535201</v>
+        <v>0.1320439353576383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1496214170098547</v>
+        <v>0.1493657416993834</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2749044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2706870</v>
+        <v>2706170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2786511</v>
+        <v>2789427</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8426160950179473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8296892568956548</v>
+        <v>0.8294747299035976</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8541002151979619</v>
+        <v>0.8549940292240644</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2867</v>
@@ -2138,19 +2138,19 @@
         <v>2950984</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2911477</v>
+        <v>2911893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2988849</v>
+        <v>2990662</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8756820484352065</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8639586479067988</v>
+        <v>0.8640822526815926</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8869183823589241</v>
+        <v>0.8874562917723413</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5560</v>
@@ -2159,19 +2159,19 @@
         <v>5700028</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5640082</v>
+        <v>5641778</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5751335</v>
+        <v>5756664</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8594168292741564</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8503785829901459</v>
+        <v>0.8506342583006167</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8671525606464801</v>
+        <v>0.8679560646423617</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>89811</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73628</v>
+        <v>74252</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108660</v>
+        <v>109567</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2058949150995566</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.168794458129374</v>
+        <v>0.1702248091228643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2491063946643143</v>
+        <v>0.2511857213288914</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -2526,19 +2526,19 @@
         <v>41352</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29555</v>
+        <v>30921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53608</v>
+        <v>56023</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1323319840654137</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09457840236563363</v>
+        <v>0.09895053381009961</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1715516595074847</v>
+        <v>0.1792797818580036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -2547,19 +2547,19 @@
         <v>131164</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>111551</v>
+        <v>109333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155092</v>
+        <v>152320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.175191072484927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1489948534779784</v>
+        <v>0.1460326643137765</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2071506610798577</v>
+        <v>0.2034490317031813</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>346389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327540</v>
+        <v>326633</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362572</v>
+        <v>361948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7941050849004434</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7508936053356856</v>
+        <v>0.7488142786711085</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.831205541870626</v>
+        <v>0.8297751908771357</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -2597,19 +2597,19 @@
         <v>271138</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258882</v>
+        <v>256467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282935</v>
+        <v>281569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8676680159345863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8284483404925151</v>
+        <v>0.8207202181419964</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9054215976343664</v>
+        <v>0.9010494661899003</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>558</v>
@@ -2618,19 +2618,19 @@
         <v>617526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>593598</v>
+        <v>596370</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>637139</v>
+        <v>639357</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.824808927515073</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7928493389201423</v>
+        <v>0.7965509682968186</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8510051465220215</v>
+        <v>0.8539673356862233</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>58834</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45427</v>
+        <v>45524</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75359</v>
+        <v>75873</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1429686651490083</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1103879466740887</v>
+        <v>0.1106232597989518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1831237668828372</v>
+        <v>0.1843723018505253</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -2743,19 +2743,19 @@
         <v>56065</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42155</v>
+        <v>41524</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71007</v>
+        <v>70773</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1673613420345656</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1258372196459829</v>
+        <v>0.1239546678266964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.211964510812602</v>
+        <v>0.2112660308004931</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -2764,19 +2764,19 @@
         <v>114900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95880</v>
+        <v>96408</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139618</v>
+        <v>137140</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1539147827666779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1284365983792217</v>
+        <v>0.1291442151222608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1870257747295532</v>
+        <v>0.1837068856793451</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>352685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>336160</v>
+        <v>335646</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366092</v>
+        <v>365995</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8570313348509917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8168762331171627</v>
+        <v>0.8156276981494746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8896120533259111</v>
+        <v>0.8893767402010482</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>253</v>
@@ -2814,19 +2814,19 @@
         <v>278931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>263989</v>
+        <v>264223</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>292841</v>
+        <v>293472</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8326386579654343</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.788035489187398</v>
+        <v>0.7887339691995067</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8741627803540172</v>
+        <v>0.8760453321733035</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>567</v>
@@ -2835,19 +2835,19 @@
         <v>631615</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>606897</v>
+        <v>609375</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>650635</v>
+        <v>650107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8460852172333221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8129742252704473</v>
+        <v>0.8162931143206548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8715634016207785</v>
+        <v>0.8708557848777392</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>95359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78661</v>
+        <v>76803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114594</v>
+        <v>114618</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1517297013006842</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1251600319724716</v>
+        <v>0.1222042813548677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1823346881240032</v>
+        <v>0.1823733356219087</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -2960,19 +2960,19 @@
         <v>34886</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24835</v>
+        <v>25072</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47062</v>
+        <v>47387</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1363653650692236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0970790970760915</v>
+        <v>0.09800211537034885</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1839596545229225</v>
+        <v>0.1852320585313062</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -2981,19 +2981,19 @@
         <v>130245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110347</v>
+        <v>110185</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151099</v>
+        <v>152541</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1472848492426073</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1247835537037211</v>
+        <v>0.1245998688271631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1708665942318199</v>
+        <v>0.1724980651677287</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>533121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>513886</v>
+        <v>513862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>549819</v>
+        <v>551677</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8482702986993158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.817665311875997</v>
+        <v>0.8176266643780917</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8748399680275287</v>
+        <v>0.8777957186451324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>206</v>
@@ -3031,19 +3031,19 @@
         <v>220941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>208765</v>
+        <v>208440</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>230992</v>
+        <v>230755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8636346349307764</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8160403454770775</v>
+        <v>0.8147679414686938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9029209029239085</v>
+        <v>0.9019978846296511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>703</v>
@@ -3052,19 +3052,19 @@
         <v>754062</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>733208</v>
+        <v>731766</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>773960</v>
+        <v>774122</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8527151507573927</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8291334057681801</v>
+        <v>0.8275019348322714</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8752164462962789</v>
+        <v>0.875400131172837</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>184053</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161765</v>
+        <v>158641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211713</v>
+        <v>209344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1605575339955219</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1411151592870113</v>
+        <v>0.1383898210781329</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1846870153919294</v>
+        <v>0.1826205453088609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -3177,19 +3177,19 @@
         <v>110294</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92372</v>
+        <v>91645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131851</v>
+        <v>129687</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1448655642678844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1213253399346825</v>
+        <v>0.1203709638129524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1731795683801119</v>
+        <v>0.1703371280422903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>280</v>
@@ -3198,19 +3198,19 @@
         <v>294347</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>263834</v>
+        <v>264070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>329503</v>
+        <v>329398</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.154294900641712</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1383002307412968</v>
+        <v>0.138424070841481</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1727234608481147</v>
+        <v>0.1726684252591699</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>962281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>934621</v>
+        <v>936990</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>984569</v>
+        <v>987693</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8394424660044781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8153129846080707</v>
+        <v>0.817379454691139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8588848407129888</v>
+        <v>0.8616101789218671</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>604</v>
@@ -3248,19 +3248,19 @@
         <v>651061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>629504</v>
+        <v>631668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>668983</v>
+        <v>669710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8551344357321156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8268204316198867</v>
+        <v>0.82966287195771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8786746600653175</v>
+        <v>0.8796290361870477</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1497</v>
@@ -3269,19 +3269,19 @@
         <v>1613342</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1578186</v>
+        <v>1578291</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1643855</v>
+        <v>1643619</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.845705099358288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8272765391518856</v>
+        <v>0.8273315747408302</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8616997692587032</v>
+        <v>0.8615759291585191</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>81619</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66671</v>
+        <v>66188</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99624</v>
+        <v>99906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1607419784227697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1313025222989575</v>
+        <v>0.1303514594469698</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1962007818526628</v>
+        <v>0.1967560189462649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -3394,19 +3394,19 @@
         <v>78074</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61735</v>
+        <v>62028</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97954</v>
+        <v>98059</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.10297079590109</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08142092432268627</v>
+        <v>0.08180744257988257</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1291902971482881</v>
+        <v>0.1293287590488845</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -3415,19 +3415,19 @@
         <v>159693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>139228</v>
+        <v>136340</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>186979</v>
+        <v>184171</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1261419548584586</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1099760743190109</v>
+        <v>0.1076948492255565</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1476950830598094</v>
+        <v>0.1454767864583671</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>426147</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>408142</v>
+        <v>407860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>441095</v>
+        <v>441578</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8392580215772303</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.803799218147337</v>
+        <v>0.8032439810537351</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8686974777010422</v>
+        <v>0.8696485405530302</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>629</v>
@@ -3465,19 +3465,19 @@
         <v>680141</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>660261</v>
+        <v>660156</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>696480</v>
+        <v>696187</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8970292040989101</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8708097028517119</v>
+        <v>0.8706712409511156</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9185790756773138</v>
+        <v>0.9181925574201175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1031</v>
@@ -3486,19 +3486,19 @@
         <v>1106287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1079001</v>
+        <v>1081809</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1126752</v>
+        <v>1129640</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8738580451415414</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8523049169401906</v>
+        <v>0.8545232135416331</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8900239256809892</v>
+        <v>0.8923051507744436</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>87289</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72648</v>
+        <v>73435</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100942</v>
+        <v>101763</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.33079093603808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.275307126202264</v>
+        <v>0.2782917958774094</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.382532843472241</v>
+        <v>0.3856441948216325</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>151</v>
@@ -3611,19 +3611,19 @@
         <v>152917</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>133145</v>
+        <v>131608</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>178736</v>
+        <v>178422</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1399877268023224</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1218877007716394</v>
+        <v>0.120480738790794</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1636235769568146</v>
+        <v>0.1633357708865818</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>240</v>
@@ -3632,19 +3632,19 @@
         <v>240206</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>213981</v>
+        <v>212120</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>271481</v>
+        <v>270117</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1771116381088095</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1577754987669622</v>
+        <v>0.1564032232279015</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2001719825106602</v>
+        <v>0.1991661411988365</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>176590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162937</v>
+        <v>162116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191231</v>
+        <v>190444</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.66920906396192</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6174671565277592</v>
+        <v>0.6143558051783673</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7246928737977359</v>
+        <v>0.7217082041225905</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>877</v>
@@ -3682,19 +3682,19 @@
         <v>939444</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>913625</v>
+        <v>913939</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>959216</v>
+        <v>960753</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8600122731976776</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8363764230431855</v>
+        <v>0.8366642291134181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8781122992283608</v>
+        <v>0.879519261209206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1050</v>
@@ -3703,19 +3703,19 @@
         <v>1116034</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1084759</v>
+        <v>1086123</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1142259</v>
+        <v>1144120</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8228883618911904</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7998280174893393</v>
+        <v>0.8008338588011632</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8422245012330377</v>
+        <v>0.8435967767720985</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>596966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>547846</v>
+        <v>556111</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>642488</v>
+        <v>643133</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.175879227690644</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1614076213787193</v>
+        <v>0.1638424829179334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1892911801437382</v>
+        <v>0.1894811200339259</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>447</v>
@@ -3828,19 +3828,19 @@
         <v>473589</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>434436</v>
+        <v>430785</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>513459</v>
+        <v>520552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1347243629002438</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.123586421695735</v>
+        <v>0.1225478242304189</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1460663933908775</v>
+        <v>0.1480841546563511</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1029</v>
@@ -3849,19 +3849,19 @@
         <v>1070554</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1011356</v>
+        <v>1010962</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1137019</v>
+        <v>1135416</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1549412438327871</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1463734726934088</v>
+        <v>0.1463164542371857</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1645606098674076</v>
+        <v>0.1643285818021545</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2797213</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2751691</v>
+        <v>2751046</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2846333</v>
+        <v>2838068</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.824120772309356</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8107088198562618</v>
+        <v>0.8105188799660741</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8385923786212803</v>
+        <v>0.8361575170820665</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2810</v>
@@ -3899,19 +3899,19 @@
         <v>3041654</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3001784</v>
+        <v>2994691</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3080807</v>
+        <v>3084458</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8652756370997562</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8539336066091224</v>
+        <v>0.8519158453436488</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8764135783042647</v>
+        <v>0.8774521757695803</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5406</v>
@@ -3920,19 +3920,19 @@
         <v>5838868</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5772403</v>
+        <v>5774006</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5898066</v>
+        <v>5898460</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8450587561672129</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8354393901325925</v>
+        <v>0.8356714181978455</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8536265273065912</v>
+        <v>0.8536835457628144</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>70547</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55857</v>
+        <v>55221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88312</v>
+        <v>86474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1658669660390405</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1313275728482581</v>
+        <v>0.1298319467609166</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2076346396923874</v>
+        <v>0.2033144806826574</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -4287,19 +4287,19 @@
         <v>67477</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53319</v>
+        <v>54023</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82376</v>
+        <v>83299</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1975085806295274</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1560667053214684</v>
+        <v>0.1581292342800369</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2411176119492044</v>
+        <v>0.2438208424010231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -4308,19 +4308,19 @@
         <v>138024</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117991</v>
+        <v>117917</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161159</v>
+        <v>162516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1799615897064074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1538415401861108</v>
+        <v>0.1537456736584592</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2101263452419594</v>
+        <v>0.2118956099315079</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>354776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>337011</v>
+        <v>338849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>369466</v>
+        <v>370102</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8341330339609595</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7923653603076126</v>
+        <v>0.7966855193173425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8686724271517419</v>
+        <v>0.8701680532390833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>261</v>
@@ -4358,19 +4358,19 @@
         <v>274164</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259265</v>
+        <v>258342</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288322</v>
+        <v>287618</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8024914193704725</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7588823880507957</v>
+        <v>0.7561791575989761</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8439332946785316</v>
+        <v>0.8418707657199628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>588</v>
@@ -4379,19 +4379,19 @@
         <v>628940</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>605805</v>
+        <v>604448</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>648973</v>
+        <v>649047</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8200384102935926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7898736547580406</v>
+        <v>0.7881043900684919</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8461584598138893</v>
+        <v>0.8462543263415406</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>45006</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32556</v>
+        <v>34130</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58439</v>
+        <v>60233</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1202424702636329</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08697885128604027</v>
+        <v>0.09118453110703777</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1561324018323277</v>
+        <v>0.1609254408220726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -4504,19 +4504,19 @@
         <v>60574</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47954</v>
+        <v>47998</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78006</v>
+        <v>76998</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.164190493467279</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1299826951028965</v>
+        <v>0.1301028891614799</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2114422533093519</v>
+        <v>0.2087080809670514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -4525,19 +4525,19 @@
         <v>105580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88493</v>
+        <v>87637</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127986</v>
+        <v>127107</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1420577359621174</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1190677341925134</v>
+        <v>0.1179150590324858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1722049313372681</v>
+        <v>0.1710229741558267</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>329288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>315855</v>
+        <v>314061</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>341738</v>
+        <v>340164</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8797575297363671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.843867598167672</v>
+        <v>0.8390745591779276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9130211487139596</v>
+        <v>0.9088154688929623</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>292</v>
@@ -4575,19 +4575,19 @@
         <v>308351</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290919</v>
+        <v>291927</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>320971</v>
+        <v>320927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.835809506532721</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.788557746690648</v>
+        <v>0.7912919190329487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8700173048971035</v>
+        <v>0.8698971108385204</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>601</v>
@@ -4596,19 +4596,19 @@
         <v>637638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>615232</v>
+        <v>616111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>654725</v>
+        <v>655581</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8579422640378825</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.827795068662732</v>
+        <v>0.8289770258441731</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8809322658074866</v>
+        <v>0.8820849409675142</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>64704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50274</v>
+        <v>50769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80900</v>
+        <v>81097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1253112647044409</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0973649805667362</v>
+        <v>0.09832404527354671</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.156678588944574</v>
+        <v>0.1570602459986181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -4721,19 +4721,19 @@
         <v>19000</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12158</v>
+        <v>11122</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27759</v>
+        <v>27702</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1143744175535161</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07318881925791257</v>
+        <v>0.06695162037314724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1670967008338919</v>
+        <v>0.1667586215810775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -4742,19 +4742,19 @@
         <v>83704</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67441</v>
+        <v>67130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102605</v>
+        <v>104528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.122649072668069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09881948423428384</v>
+        <v>0.09836344062554696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1503447961508904</v>
+        <v>0.1531622553216787</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>451641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>435445</v>
+        <v>435248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>466071</v>
+        <v>465576</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8746887352955591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.843321411055426</v>
+        <v>0.8429397540013819</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9026350194332639</v>
+        <v>0.9016759547264533</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>135</v>
@@ -4792,19 +4792,19 @@
         <v>147123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>138364</v>
+        <v>138421</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153965</v>
+        <v>155001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8856255824464839</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8329032991661082</v>
+        <v>0.8332413784189225</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9268111807420876</v>
+        <v>0.9330483796268528</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>573</v>
@@ -4813,19 +4813,19 @@
         <v>598763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>579862</v>
+        <v>577939</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615026</v>
+        <v>615337</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.877350927331931</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8496552038491096</v>
+        <v>0.8468377446783213</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9011805157657161</v>
+        <v>0.9016365593744531</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>142998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121097</v>
+        <v>122776</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167931</v>
+        <v>167700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1256162056155828</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1063768895817758</v>
+        <v>0.1078516901174453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1475186777122043</v>
+        <v>0.1473157190824065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -4938,19 +4938,19 @@
         <v>111076</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93539</v>
+        <v>92332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>134193</v>
+        <v>131413</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1352728369467973</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1139148446580863</v>
+        <v>0.1124447175305321</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1634251941860927</v>
+        <v>0.160039646998945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>245</v>
@@ -4959,19 +4959,19 @@
         <v>254075</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225632</v>
+        <v>224558</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>284340</v>
+        <v>284444</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1296628134735963</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1151477085561635</v>
+        <v>0.1145992019972616</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1451083294394294</v>
+        <v>0.1451611175766227</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>995376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>970443</v>
+        <v>970674</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1017277</v>
+        <v>1015598</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8743837943844172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8524813222877957</v>
+        <v>0.8526842809175934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8936231104182242</v>
+        <v>0.8921483098825547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>685</v>
@@ -5009,19 +5009,19 @@
         <v>710053</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>686936</v>
+        <v>689716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>727590</v>
+        <v>728797</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8647271630532027</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8365748058139074</v>
+        <v>0.839960353001055</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8860851553419137</v>
+        <v>0.8875552824694679</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1641</v>
@@ -5030,19 +5030,19 @@
         <v>1705429</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1675164</v>
+        <v>1675060</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1733872</v>
+        <v>1734946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8703371865264037</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8548916705605699</v>
+        <v>0.8548388824233772</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8848522914438363</v>
+        <v>0.8854007980027383</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>59446</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46698</v>
+        <v>45159</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77546</v>
+        <v>76295</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09590898570251841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07534179536545896</v>
+        <v>0.07285948178946769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1251124888131653</v>
+        <v>0.1230933747909682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -5155,19 +5155,19 @@
         <v>69685</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55912</v>
+        <v>55005</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88073</v>
+        <v>87148</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09508069619704036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0762881710417241</v>
+        <v>0.07505166258071969</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1201700638430032</v>
+        <v>0.1189079886043571</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -5176,19 +5176,19 @@
         <v>129130</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108636</v>
+        <v>107389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153748</v>
+        <v>153170</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09546021896326824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08030960458045397</v>
+        <v>0.07938770983857935</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1136592994797156</v>
+        <v>0.1132316397324877</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>560368</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>542268</v>
+        <v>543519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>573116</v>
+        <v>574655</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9040910142974816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8748875111868348</v>
+        <v>0.8769066252090318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9246582046345411</v>
+        <v>0.9271405182105323</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>626</v>
@@ -5226,19 +5226,19 @@
         <v>663214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>644826</v>
+        <v>645751</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>676987</v>
+        <v>677894</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9049193038029596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8798299361569968</v>
+        <v>0.8810920113956431</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.923711828958276</v>
+        <v>0.9249483374192804</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1168</v>
@@ -5247,19 +5247,19 @@
         <v>1223582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1198964</v>
+        <v>1199542</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1244076</v>
+        <v>1245323</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9045397810367317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8863407005202844</v>
+        <v>0.8867683602675123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.919690395419546</v>
+        <v>0.9206122901614207</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>66215</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52921</v>
+        <v>51894</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80796</v>
+        <v>80822</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2343926288293551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1873355749247394</v>
+        <v>0.1836986471068079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2860097395520755</v>
+        <v>0.2860993815338491</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>145</v>
@@ -5372,19 +5372,19 @@
         <v>149634</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127590</v>
+        <v>127186</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172958</v>
+        <v>172373</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1392530340628639</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1187381256298664</v>
+        <v>0.118362881964914</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.160958837429263</v>
+        <v>0.1604148194569905</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -5393,19 +5393,19 @@
         <v>215849</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>190198</v>
+        <v>186473</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>243302</v>
+        <v>244663</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1590582068984076</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1401562088266701</v>
+        <v>0.1374115644138061</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1792883222737585</v>
+        <v>0.1802912513349331</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>216280</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>201699</v>
+        <v>201673</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229574</v>
+        <v>230601</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7656073711706448</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7139902604479245</v>
+        <v>0.7139006184661509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8126644250752606</v>
+        <v>0.8163013528931922</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>841</v>
@@ -5443,19 +5443,19 @@
         <v>924912</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>901588</v>
+        <v>902173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>946956</v>
+        <v>947360</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8607469659371361</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8390411625707371</v>
+        <v>0.8395851805430095</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8812618743701336</v>
+        <v>0.881637118035086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1046</v>
@@ -5464,19 +5464,19 @@
         <v>1141192</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1113739</v>
+        <v>1112378</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1166843</v>
+        <v>1170568</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8409417931015923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8207116777262415</v>
+        <v>0.819708748665067</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8598437911733307</v>
+        <v>0.862588435586195</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>448915</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>410376</v>
+        <v>406297</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>492659</v>
+        <v>491786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1337393706019113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1222577755387077</v>
+        <v>0.1210424880773816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1467712915057747</v>
+        <v>0.1465111564560219</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>463</v>
@@ -5589,19 +5589,19 @@
         <v>477446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>434045</v>
+        <v>438248</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>518293</v>
+        <v>519559</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1362083252387276</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1238266836175911</v>
+        <v>0.1250256504181116</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1478613797926678</v>
+        <v>0.148222613206898</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>883</v>
@@ -5610,19 +5610,19 @@
         <v>926361</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>873790</v>
+        <v>874067</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>991433</v>
+        <v>985556</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.13500058474511</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1273393047026753</v>
+        <v>0.1273796854025437</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1444836339849215</v>
+        <v>0.143627197314106</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2907729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2863985</v>
+        <v>2864858</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2946268</v>
+        <v>2950347</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8662606293980887</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8532287084942255</v>
+        <v>0.8534888435439781</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8777422244612925</v>
+        <v>0.8789575119226185</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2840</v>
@@ -5660,19 +5660,19 @@
         <v>3027816</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2986969</v>
+        <v>2985703</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3071217</v>
+        <v>3067014</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8637916747612724</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8521386202073322</v>
+        <v>0.8517773867931021</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.876173316382409</v>
+        <v>0.8749743495818885</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5617</v>
@@ -5681,19 +5681,19 @@
         <v>5935545</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5870473</v>
+        <v>5876350</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5988116</v>
+        <v>5987839</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.86499941525489</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8555163660150784</v>
+        <v>0.8563728026858938</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8726606952973245</v>
+        <v>0.8726203145974563</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>88214</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>70384</v>
+        <v>70649</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111283</v>
+        <v>106888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1602099504394586</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1278275413798154</v>
+        <v>0.1283083590240779</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2021056823980042</v>
+        <v>0.1941235581632702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -6048,19 +6048,19 @@
         <v>56367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44263</v>
+        <v>44656</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71070</v>
+        <v>71283</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1154095535836648</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09062564968976504</v>
+        <v>0.09143065897353478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1455126914006634</v>
+        <v>0.1459480132659878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -6069,19 +6069,19 @@
         <v>144582</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122868</v>
+        <v>124105</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168265</v>
+        <v>170058</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.139150867091467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1182530742580716</v>
+        <v>0.1194428655873517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1619448032321354</v>
+        <v>0.1636703588455118</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>462404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439335</v>
+        <v>443730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>480234</v>
+        <v>479969</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8397900495605414</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7978943176019959</v>
+        <v>0.8058764418367298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8721724586201849</v>
+        <v>0.8716916409759221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>615</v>
@@ -6119,19 +6119,19 @@
         <v>432044</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>417341</v>
+        <v>417128</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>444148</v>
+        <v>443755</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8845904464163352</v>
+        <v>0.8845904464163351</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8544873085993367</v>
+        <v>0.8540519867340122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9093743503102347</v>
+        <v>0.9085693410264652</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1090</v>
@@ -6140,19 +6140,19 @@
         <v>894447</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>870764</v>
+        <v>868971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>916161</v>
+        <v>914924</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8608491329085332</v>
+        <v>0.860849132908533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8380551967678647</v>
+        <v>0.8363296411544883</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8817469257419284</v>
+        <v>0.8805571344126484</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>78099</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61677</v>
+        <v>62242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96538</v>
+        <v>97293</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1616254517523358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1276386634203792</v>
+        <v>0.1288090890804328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1997836888961271</v>
+        <v>0.2013473034357147</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -6265,19 +6265,19 @@
         <v>62477</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49032</v>
+        <v>49109</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75853</v>
+        <v>76965</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.147649407533628</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1158766395420997</v>
+        <v>0.1160573038631278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1792617274850168</v>
+        <v>0.1818894706774746</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -6286,19 +6286,19 @@
         <v>140576</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118374</v>
+        <v>121854</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>163146</v>
+        <v>164825</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1551005655507506</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1306040211576004</v>
+        <v>0.1344440164102375</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1800020231484635</v>
+        <v>0.1818550960869381</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>405113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>386674</v>
+        <v>385919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421535</v>
+        <v>420970</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8383745482476642</v>
+        <v>0.8383745482476641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8002163111038725</v>
+        <v>0.7986526965642844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8723613365796208</v>
+        <v>0.8711909109195667</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>511</v>
@@ -6336,19 +6336,19 @@
         <v>360666</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>347290</v>
+        <v>346178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>374111</v>
+        <v>374034</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.852350592466372</v>
+        <v>0.8523505924663719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.820738272514983</v>
+        <v>0.818110529322525</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8841233604579003</v>
+        <v>0.883942696136872</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>922</v>
@@ -6357,19 +6357,19 @@
         <v>765779</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>743209</v>
+        <v>741530</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>787981</v>
+        <v>784501</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8448994344492496</v>
+        <v>0.8448994344492495</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8199979768515364</v>
+        <v>0.8181449039130618</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8693959788423995</v>
+        <v>0.8655559835897624</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>82962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66003</v>
+        <v>65171</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101148</v>
+        <v>100473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1764188405334874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1403561334680099</v>
+        <v>0.1385854729610325</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2150922076522279</v>
+        <v>0.2136559100171524</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -6482,19 +6482,19 @@
         <v>27844</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20009</v>
+        <v>20385</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36871</v>
+        <v>37059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1490115619560549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1070818024815062</v>
+        <v>0.1090900858204938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1973171282789542</v>
+        <v>0.19832288923876</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -6503,19 +6503,19 @@
         <v>110806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93047</v>
+        <v>91861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133133</v>
+        <v>130532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1686251818272081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1415987669112442</v>
+        <v>0.1397946018171292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2026024426426478</v>
+        <v>0.1986439770582366</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>387293</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>369107</v>
+        <v>369782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>404252</v>
+        <v>405084</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8235811594665127</v>
+        <v>0.8235811594665126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7849077923477722</v>
+        <v>0.7863440899828477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8596438665319902</v>
+        <v>0.8614145270389677</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>251</v>
@@ -6553,19 +6553,19 @@
         <v>159016</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149989</v>
+        <v>149801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166851</v>
+        <v>166475</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8509884380439452</v>
+        <v>0.850988438043945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.802682871721046</v>
+        <v>0.80167711076124</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8929181975184939</v>
+        <v>0.8909099141795062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>661</v>
@@ -6574,19 +6574,19 @@
         <v>546310</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>523983</v>
+        <v>526584</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>564069</v>
+        <v>565255</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8313748181727918</v>
+        <v>0.8313748181727919</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7973975573573521</v>
+        <v>0.8013560229417634</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8584012330887559</v>
+        <v>0.8602053981828708</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>170472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>143502</v>
+        <v>144988</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198979</v>
+        <v>199256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1512335829113078</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1273073255024328</v>
+        <v>0.1286256364634066</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1765233883277771</v>
+        <v>0.1767690346281121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -6699,19 +6699,19 @@
         <v>115449</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96574</v>
+        <v>98026</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136615</v>
+        <v>136942</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1341727639700818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1122356525420648</v>
+        <v>0.1139242016985501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1587712799159348</v>
+        <v>0.1591514490496366</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>284</v>
@@ -6720,19 +6720,19 @@
         <v>285921</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>253944</v>
+        <v>253840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>318616</v>
+        <v>321802</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1438480119685847</v>
+        <v>0.1438480119685846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1277599815466076</v>
+        <v>0.1277079390195349</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1602969690385342</v>
+        <v>0.1618997903676681</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>956738</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>928231</v>
+        <v>927954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>983708</v>
+        <v>982222</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8487664170886922</v>
+        <v>0.8487664170886923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8234766116722225</v>
+        <v>0.823230965371888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8726926744975668</v>
+        <v>0.8713743635365933</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1094</v>
@@ -6770,19 +6770,19 @@
         <v>745004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>723838</v>
+        <v>723511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>763879</v>
+        <v>762427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8658272360299182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8412287200840652</v>
+        <v>0.8408485509503634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8877643474579353</v>
+        <v>0.88607579830145</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2059</v>
@@ -6791,19 +6791,19 @@
         <v>1701742</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1669047</v>
+        <v>1665861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1733719</v>
+        <v>1733823</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8561519880314152</v>
+        <v>0.8561519880314153</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8397030309614659</v>
+        <v>0.8381002096323319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8722400184533927</v>
+        <v>0.8722920609804653</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>107993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86876</v>
+        <v>88848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>131366</v>
+        <v>134602</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1906467327253684</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1533674763254663</v>
+        <v>0.1568481938056668</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2319078287872871</v>
+        <v>0.2376212141390006</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -6916,19 +6916,19 @@
         <v>112325</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97589</v>
+        <v>96334</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>129742</v>
+        <v>129889</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1353169268431235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1175637758437909</v>
+        <v>0.1160527513290369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.156298815604705</v>
+        <v>0.1564763662033719</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>252</v>
@@ -6937,19 +6937,19 @@
         <v>220319</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>193729</v>
+        <v>195099</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250031</v>
+        <v>251286</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1577593945849229</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.138719736090446</v>
+        <v>0.1397006499030387</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1790349582541158</v>
+        <v>0.1799333954415411</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>458464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>435091</v>
+        <v>431855</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>479581</v>
+        <v>477609</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8093532672746314</v>
+        <v>0.8093532672746315</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7680921712127129</v>
+        <v>0.7623787858609997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8466325236745338</v>
+        <v>0.8431518061943333</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1128</v>
@@ -6987,19 +6987,19 @@
         <v>717765</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>700348</v>
+        <v>700201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>732501</v>
+        <v>733756</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8646830731568764</v>
+        <v>0.8646830731568765</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8437011843952952</v>
+        <v>0.8435236337966282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8824362241562093</v>
+        <v>0.8839472486709633</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1582</v>
@@ -7008,19 +7008,19 @@
         <v>1176229</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1146517</v>
+        <v>1145262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1202819</v>
+        <v>1201449</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8422406054150772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.820965041745884</v>
+        <v>0.8200666045584587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.861280263909554</v>
+        <v>0.8602993500969613</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>52990</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35389</v>
+        <v>35425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76979</v>
+        <v>75806</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2233736420792909</v>
+        <v>0.223373642079291</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1491750799694024</v>
+        <v>0.149329866451916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3244949080128745</v>
+        <v>0.3195486046887901</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>130</v>
@@ -7133,19 +7133,19 @@
         <v>106245</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>87255</v>
+        <v>87467</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126559</v>
+        <v>128494</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.125931455640406</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1034231133474711</v>
+        <v>0.1036738487061461</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1500099241878575</v>
+        <v>0.1523030846496311</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>153</v>
@@ -7154,19 +7154,19 @@
         <v>159235</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130493</v>
+        <v>130985</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>189611</v>
+        <v>189758</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.147317322882179</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1207263465272925</v>
+        <v>0.1211818167664901</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1754197535815116</v>
+        <v>0.1755553748837603</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>184238</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>160249</v>
+        <v>161422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>201839</v>
+        <v>201803</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.776626357920709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6755050919871256</v>
+        <v>0.6804513953112103</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8508249200305976</v>
+        <v>0.8506701335480842</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1028</v>
@@ -7204,19 +7204,19 @@
         <v>737427</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>717113</v>
+        <v>715178</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>756417</v>
+        <v>756205</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.874068544359594</v>
+        <v>0.8740685443595941</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8499900758121426</v>
+        <v>0.8476969153503686</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8965768866525288</v>
+        <v>0.8963261512938538</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1117</v>
@@ -7225,19 +7225,19 @@
         <v>921665</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>891289</v>
+        <v>891142</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>950407</v>
+        <v>949915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8526826771178211</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8245802464184884</v>
+        <v>0.8244446251162397</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8792736534727076</v>
+        <v>0.8788181832335091</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>580732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>532198</v>
+        <v>526501</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>634713</v>
+        <v>632910</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1690639635222275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1549347893778113</v>
+        <v>0.1532761842546119</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1847792160386852</v>
+        <v>0.1842543005877108</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>613</v>
@@ -7350,19 +7350,19 @@
         <v>480708</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>445693</v>
+        <v>441549</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>520372</v>
+        <v>520293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1323305629849403</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.122691522797516</v>
+        <v>0.121550899137258</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1432493157704207</v>
+        <v>0.1432277212398712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1102</v>
@@ -7371,19 +7371,19 @@
         <v>1061439</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>997570</v>
+        <v>1000464</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1128680</v>
+        <v>1122970</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1501836316223895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1411467051953524</v>
+        <v>0.1415562043745666</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1596975053157949</v>
+        <v>0.1588896339003396</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2854249</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2800268</v>
+        <v>2802071</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2902783</v>
+        <v>2908480</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8309360364777726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.815220783961315</v>
+        <v>0.8157456994122892</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8450652106221889</v>
+        <v>0.846723815745388</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4627</v>
@@ -7421,19 +7421,19 @@
         <v>3151921</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3112257</v>
+        <v>3112336</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3186936</v>
+        <v>3191080</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8676694370150596</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.856750684229579</v>
+        <v>0.8567722787601287</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8773084772024837</v>
+        <v>0.8784491008627416</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7431</v>
@@ -7442,19 +7442,19 @@
         <v>6006171</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5938930</v>
+        <v>5944640</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6070040</v>
+        <v>6067146</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8498163683776105</v>
+        <v>0.8498163683776103</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.840302494684205</v>
+        <v>0.8411103660996605</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8588532948046474</v>
+        <v>0.8584437956254335</v>
       </c>
     </row>
     <row r="24">
